--- a/Tos.FoodProcs.Web/templates/genryoChuiKankiMasterIchiran_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genryoChuiKankiMasterIchiran_vi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\FPL_VN版\src_code\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="13335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="13332"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,62 +25,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Output date  　  　：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Output person　  　：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Material Alert Master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item type</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Warning type</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Print</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Unused</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Warning list</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Warning Code</t>
-    <phoneticPr fontId="1"/>
+    <t>Master nguyên liệu chú ý cảnh báo</t>
+  </si>
+  <si>
+    <t>Ngày xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Thứ tự</t>
+  </si>
+  <si>
+    <t>Loại cảnh báo</t>
+  </si>
+  <si>
+    <t>Mã nhóm</t>
+  </si>
+  <si>
+    <t>Tên nhóm</t>
+  </si>
+  <si>
+    <t>Hiển thị cảnh báo</t>
+  </si>
+  <si>
+    <t>Không
+sử dụng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="@* \:"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -89,20 +84,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="SimHei"/>
       <family val="3"/>
@@ -110,23 +91,27 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="SimHei"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="SimHei"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -222,7 +207,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -232,74 +217,74 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="33" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="33" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -313,12 +298,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,48 +602,48 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="22.25" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="19.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="13" customWidth="1"/>
+    <col min="5" max="6" width="22.21875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="28.8" thickTop="1" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -672,16 +660,16 @@
         <v>7</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" thickTop="1"/>
